--- a/Team-Data/2013-14/11-12-2013-14.xlsx
+++ b/Team-Data/2013-14/11-12-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -768,10 +835,10 @@
         <v>6</v>
       </c>
       <c r="AL2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="n">
         <v>9</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>10</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
@@ -783,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -792,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
         <v>2</v>
@@ -804,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,10 +883,10 @@
         <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -959,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -983,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>9</v>
@@ -995,13 +1062,13 @@
         <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>20</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -1108,25 +1175,25 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1141,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>14</v>
@@ -1162,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>15</v>
@@ -1177,13 +1244,13 @@
         <v>30</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-5.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
         <v>16</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>12</v>
@@ -1311,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>28</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1329,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>17</v>
@@ -1338,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1350,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
@@ -1487,13 +1554,13 @@
         <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK6" t="n">
         <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1523,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>24</v>
@@ -1532,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-6.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1672,25 +1739,25 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
         <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1702,16 +1769,16 @@
         <v>18</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
         <v>9</v>
@@ -1720,16 +1787,16 @@
         <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>26</v>
       </c>
       <c r="BC7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
-        <v>0.401</v>
+        <v>0.404</v>
       </c>
       <c r="O8" t="n">
-        <v>18.1</v>
+        <v>18.9</v>
       </c>
       <c r="P8" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="R8" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
         <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
         <v>16.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y8" t="n">
         <v>4</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
         <v>19.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
@@ -1857,46 +1924,46 @@
         <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO8" t="n">
         <v>9</v>
       </c>
-      <c r="AN8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1905,13 +1972,13 @@
         <v>10</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -2018,40 +2085,40 @@
         <v>-2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
         <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>12</v>
@@ -2060,19 +2127,19 @@
         <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>19</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
         <v>29</v>
@@ -2081,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>22</v>
@@ -2090,10 +2157,10 @@
         <v>8</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -2122,103 +2189,103 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="H10" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="O10" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="R10" t="n">
-        <v>15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="V10" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="Z10" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.3</v>
+        <v>-0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
@@ -2227,55 +2294,55 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS10" t="n">
         <v>27</v>
       </c>
-      <c r="AO10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>30</v>
-      </c>
       <c r="AT10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU10" t="n">
         <v>20</v>
       </c>
-      <c r="AU10" t="n">
-        <v>22</v>
-      </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>12</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -2304,145 +2371,145 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="J11" t="n">
-        <v>79.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.493</v>
+        <v>0.48</v>
       </c>
       <c r="L11" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="M11" t="n">
-        <v>24.9</v>
+        <v>26.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.437</v>
+        <v>0.432</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.706</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="S11" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="V11" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="W11" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z11" t="n">
         <v>25.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.9</v>
+        <v>102.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
       </c>
       <c r="AM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" t="n">
         <v>4</v>
       </c>
-      <c r="AN11" t="n">
-        <v>2</v>
-      </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AR11" t="n">
         <v>28</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
         <v>30</v>
       </c>
       <c r="AW11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>4</v>
@@ -2451,10 +2518,10 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
@@ -2579,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2591,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
         <v>23</v>
@@ -2606,7 +2673,7 @@
         <v>30</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
@@ -2624,19 +2691,19 @@
         <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>10.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,13 +2834,13 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
@@ -2782,16 +2849,16 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
@@ -2803,13 +2870,13 @@
         <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX13" t="n">
         <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>3.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2949,10 +3016,10 @@
         <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2967,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2997,7 +3064,7 @@
         <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.444</v>
+        <v>0.375</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>35.8</v>
       </c>
       <c r="J15" t="n">
-        <v>87.09999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.421</v>
+        <v>0.406</v>
       </c>
       <c r="L15" t="n">
         <v>10.4</v>
       </c>
       <c r="M15" t="n">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.409</v>
+        <v>0.395</v>
       </c>
       <c r="O15" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.711</v>
+        <v>0.699</v>
       </c>
       <c r="R15" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>35.4</v>
+        <v>34.4</v>
       </c>
       <c r="T15" t="n">
-        <v>46.6</v>
+        <v>45.8</v>
       </c>
       <c r="U15" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="V15" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="W15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.3</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>97.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,52 +3207,52 @@
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>24</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV15" t="n">
         <v>16</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>-3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="n">
         <v>16</v>
       </c>
-      <c r="AF16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>17</v>
-      </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3325,10 +3392,10 @@
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
@@ -3337,7 +3404,7 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>26</v>
@@ -3346,7 +3413,7 @@
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>23</v>
@@ -3358,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
@@ -3367,7 +3434,7 @@
         <v>22</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -3396,100 +3463,100 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>39.3</v>
+        <v>38.3</v>
       </c>
       <c r="J17" t="n">
-        <v>74.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.525</v>
+        <v>0.516</v>
       </c>
       <c r="L17" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.445</v>
+        <v>0.433</v>
       </c>
       <c r="O17" t="n">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.71</v>
+        <v>0.726</v>
       </c>
       <c r="R17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="S17" t="n">
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="T17" t="n">
-        <v>34</v>
+        <v>33.1</v>
       </c>
       <c r="U17" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="V17" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.6</v>
+        <v>22.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.3</v>
+        <v>25.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>106.8</v>
+        <v>105.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
         <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,25 +3568,25 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,28 +3595,28 @@
         <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW17" t="n">
         <v>20</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -3578,94 +3645,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="J18" t="n">
         <v>79</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>20.7</v>
+        <v>18.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.419</v>
+        <v>0.436</v>
       </c>
       <c r="O18" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P18" t="n">
         <v>21.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.795</v>
+        <v>0.783</v>
       </c>
       <c r="R18" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S18" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="T18" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5.5</v>
+        <v>-2</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
         <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>12</v>
@@ -3677,61 +3744,61 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO18" t="n">
         <v>19</v>
       </c>
-      <c r="AL18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>18</v>
-      </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
       </c>
       <c r="AR18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS18" t="n">
         <v>24</v>
       </c>
-      <c r="AS18" t="n">
-        <v>25</v>
-      </c>
       <c r="AT18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU18" t="n">
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>19</v>
       </c>
-      <c r="AX18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>10</v>
-      </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>3</v>
@@ -3865,7 +3932,7 @@
         <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
         <v>18</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
         <v>7</v>
@@ -3892,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3910,10 +3977,10 @@
         <v>5</v>
       </c>
       <c r="BB19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC19" t="n">
         <v>4</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>5</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -3942,133 +4009,133 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="J20" t="n">
         <v>84.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.429</v>
+        <v>0.432</v>
       </c>
       <c r="L20" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="M20" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>17.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>21.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.803</v>
+        <v>0.82</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.6</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W20" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="X20" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
         <v>16</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4077,25 +4144,25 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>21</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>-4.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>13</v>
@@ -4250,7 +4317,7 @@
         <v>29</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU21" t="n">
         <v>24</v>
@@ -4259,13 +4326,13 @@
         <v>8</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
@@ -4277,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4405,13 +4472,13 @@
         <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="n">
         <v>28</v>
@@ -4441,22 +4508,22 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>10</v>
@@ -4584,28 +4651,28 @@
         <v>6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
         <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR23" t="n">
         <v>12</v>
@@ -4614,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
@@ -4623,7 +4690,7 @@
         <v>25</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>18</v>
@@ -4632,16 +4699,16 @@
         <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB23" t="n">
         <v>13</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -4766,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>9</v>
@@ -4781,13 +4848,13 @@
         <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>20</v>
@@ -4799,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>27</v>
@@ -4811,7 +4878,7 @@
         <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
@@ -4820,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>4.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
@@ -4954,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
         <v>8</v>
@@ -4966,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
         <v>14</v>
@@ -4987,25 +5054,25 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX25" t="n">
         <v>6</v>
       </c>
-      <c r="AX25" t="n">
-        <v>5</v>
-      </c>
       <c r="AY25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
         <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5142,10 +5209,10 @@
         <v>7</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5166,7 +5233,7 @@
         <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5181,10 +5248,10 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>29</v>
@@ -5309,19 +5376,19 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ27" t="n">
         <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>21</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5330,7 +5397,7 @@
         <v>16</v>
       </c>
       <c r="AP27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5342,7 +5409,7 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5351,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>30</v>
@@ -5363,13 +5430,13 @@
         <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB27" t="n">
         <v>27</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
@@ -5524,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5536,10 +5603,10 @@
         <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5679,19 +5746,19 @@
         <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN29" t="n">
         <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>11</v>
@@ -5700,10 +5767,10 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
         <v>6</v>
@@ -5718,10 +5785,10 @@
         <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
@@ -5733,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="BC29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-13.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>30</v>
@@ -5873,13 +5940,13 @@
         <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>10</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5900,10 +5967,10 @@
         <v>24</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
@@ -5944,103 +6011,103 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H31" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="I31" t="n">
-        <v>38.1</v>
+        <v>39</v>
       </c>
       <c r="J31" t="n">
-        <v>86.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
       </c>
       <c r="L31" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="M31" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="P31" t="n">
-        <v>23.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S31" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="T31" t="n">
-        <v>40.9</v>
+        <v>40.3</v>
       </c>
       <c r="U31" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="V31" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="W31" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>103.6</v>
+        <v>105</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3</v>
+        <v>-1.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6052,13 +6119,13 @@
         <v>1</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
         <v>29</v>
@@ -6067,37 +6134,37 @@
         <v>11</v>
       </c>
       <c r="AS31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT31" t="n">
         <v>24</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>12</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-12-2013-14</t>
+          <t>2013-11-12</t>
         </is>
       </c>
     </row>
